--- a/نموذج الملاحظين.xlsx
+++ b/نموذج الملاحظين.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="الملاحظين" sheetId="1" r:id="rId1"/>
+    <sheet name="جدول الامتحانات" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>الاسم</t>
   </si>
@@ -32,6 +33,12 @@
   </si>
   <si>
     <t>التكليف الحالي</t>
+  </si>
+  <si>
+    <t>التاريخ</t>
+  </si>
+  <si>
+    <t>0/0/0000</t>
   </si>
 </sst>
 </file>
@@ -409,4 +416,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="7" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/نموذج الملاحظين.xlsx
+++ b/نموذج الملاحظين.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_play\final-code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC148228-211C-4C89-91D8-3A653DC08B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الملاحظين" sheetId="1" r:id="rId1"/>
     <sheet name="جدول الامتحانات" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>الاسم</t>
   </si>
@@ -36,16 +42,13 @@
   </si>
   <si>
     <t>التاريخ</t>
-  </si>
-  <si>
-    <t>0/0/0000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,9 +85,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -93,6 +99,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -139,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,9 +185,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,6 +237,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,20 +430,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,37 +469,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="25.7109375" customWidth="1"/>
+    <col min="1" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
+      <c r="B1" s="2">
+        <v>36526</v>
+      </c>
+      <c r="C1" s="2">
+        <v>109607</v>
+      </c>
+      <c r="D1" s="2">
+        <v>401830</v>
+      </c>
+      <c r="E1" s="2">
+        <v>767105</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1132377</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1497653</v>
       </c>
     </row>
   </sheetData>
